--- a/CashFlow/TSCO_cashflow.xlsx
+++ b/CashFlow/TSCO_cashflow.xlsx
@@ -78,7 +78,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>7472000000.0</v>
+        <v>-178764000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>7293000000.0</v>
+        <v>-180489000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>5719991000.0</v>
+        <v>-102268000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3725369000.0</v>
+        <v>44642000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2184551000.0</v>
+        <v>-24581000.0</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>-13239000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>293986000.0</v>
+        <v>4219000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>333060000.0</v>
+        <v>3925000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>436367000.0</v>
+        <v>2971492000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>405691000.0</v>
+        <v>1937030000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>297463000.0</v>
+        <v>940561000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-3940000.0</v>
